--- a/corehq/apps/app_manager/tests/data/bulk_ui_translations_no_change.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_ui_translations_no_change.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="25600" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -3510,9 +3510,6 @@
     <t>problem.report.prompt</t>
   </si>
   <si>
-    <t>Please enter the issue you'd like to report below</t>
-  </si>
-  <si>
     <t>profile.found</t>
   </si>
   <si>
@@ -4429,6 +4426,9 @@
   </si>
   <si>
     <t>Chinese</t>
+  </si>
+  <si>
+    <t>Please enter the issue you'd like to report below. Please be sure to state where you encountered the problem, step-by-step instructions for reproducing the error, what exactly happened, and any text or error message that occurred.</t>
   </si>
 </sst>
 </file>
@@ -4762,9 +4762,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E768"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="E613" sqref="E613"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -15110,7 +15116,7 @@
         <v>6</v>
       </c>
       <c r="C609" t="s">
-        <v>1163</v>
+        <v>1469</v>
       </c>
       <c r="D609" t="s">
         <v>50</v>
@@ -15121,13 +15127,13 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B610" t="s">
+        <v>6</v>
+      </c>
+      <c r="C610" t="s">
         <v>1164</v>
-      </c>
-      <c r="B610" t="s">
-        <v>6</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1165</v>
       </c>
       <c r="D610" t="s">
         <v>50</v>
@@ -15138,13 +15144,13 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B611" t="s">
+        <v>6</v>
+      </c>
+      <c r="C611" t="s">
         <v>1166</v>
-      </c>
-      <c r="B611" t="s">
-        <v>6</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1167</v>
       </c>
       <c r="D611" t="s">
         <v>8</v>
@@ -15155,13 +15161,13 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B612" t="s">
+        <v>6</v>
+      </c>
+      <c r="C612" t="s">
         <v>1168</v>
-      </c>
-      <c r="B612" t="s">
-        <v>6</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1169</v>
       </c>
       <c r="D612" t="s">
         <v>8</v>
@@ -15172,13 +15178,13 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B613" t="s">
+        <v>6</v>
+      </c>
+      <c r="C613" t="s">
         <v>1170</v>
-      </c>
-      <c r="B613" t="s">
-        <v>6</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1171</v>
       </c>
       <c r="D613" t="s">
         <v>8</v>
@@ -15189,13 +15195,13 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B614" t="s">
+        <v>6</v>
+      </c>
+      <c r="C614" t="s">
         <v>1172</v>
-      </c>
-      <c r="B614" t="s">
-        <v>6</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1173</v>
       </c>
       <c r="D614" t="s">
         <v>8</v>
@@ -15206,13 +15212,13 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B615" t="s">
+        <v>6</v>
+      </c>
+      <c r="C615" t="s">
         <v>1174</v>
-      </c>
-      <c r="B615" t="s">
-        <v>6</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1175</v>
       </c>
       <c r="D615" t="s">
         <v>8</v>
@@ -15223,13 +15229,13 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B616" t="s">
+        <v>6</v>
+      </c>
+      <c r="C616" t="s">
         <v>1176</v>
-      </c>
-      <c r="B616" t="s">
-        <v>6</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1177</v>
       </c>
       <c r="D616" t="s">
         <v>8</v>
@@ -15240,13 +15246,13 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B617" t="s">
+        <v>6</v>
+      </c>
+      <c r="C617" t="s">
         <v>1178</v>
-      </c>
-      <c r="B617" t="s">
-        <v>6</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1179</v>
       </c>
       <c r="D617" t="s">
         <v>8</v>
@@ -15257,13 +15263,13 @@
     </row>
     <row r="618" spans="1:5">
       <c r="A618" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B618" t="s">
+        <v>6</v>
+      </c>
+      <c r="C618" t="s">
         <v>1180</v>
-      </c>
-      <c r="B618" t="s">
-        <v>6</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1181</v>
       </c>
       <c r="D618" t="s">
         <v>8</v>
@@ -15274,13 +15280,13 @@
     </row>
     <row r="619" spans="1:5">
       <c r="A619" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B619" t="s">
+        <v>6</v>
+      </c>
+      <c r="C619" t="s">
         <v>1182</v>
-      </c>
-      <c r="B619" t="s">
-        <v>6</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1183</v>
       </c>
       <c r="D619" t="s">
         <v>8</v>
@@ -15291,13 +15297,13 @@
     </row>
     <row r="620" spans="1:5">
       <c r="A620" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B620" t="s">
+        <v>6</v>
+      </c>
+      <c r="C620" t="s">
         <v>1184</v>
-      </c>
-      <c r="B620" t="s">
-        <v>6</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1185</v>
       </c>
       <c r="D620" t="s">
         <v>8</v>
@@ -15308,13 +15314,13 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B621" t="s">
+        <v>6</v>
+      </c>
+      <c r="C621" t="s">
         <v>1186</v>
-      </c>
-      <c r="B621" t="s">
-        <v>6</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1187</v>
       </c>
       <c r="D621" t="s">
         <v>8</v>
@@ -15325,13 +15331,13 @@
     </row>
     <row r="622" spans="1:5">
       <c r="A622" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B622" t="s">
+        <v>6</v>
+      </c>
+      <c r="C622" t="s">
         <v>1188</v>
-      </c>
-      <c r="B622" t="s">
-        <v>6</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1189</v>
       </c>
       <c r="D622" t="s">
         <v>8</v>
@@ -15342,13 +15348,13 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B623" t="s">
+        <v>6</v>
+      </c>
+      <c r="C623" t="s">
         <v>1190</v>
-      </c>
-      <c r="B623" t="s">
-        <v>6</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1191</v>
       </c>
       <c r="D623" t="s">
         <v>8</v>
@@ -15359,13 +15365,13 @@
     </row>
     <row r="624" spans="1:5">
       <c r="A624" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B624" t="s">
+        <v>6</v>
+      </c>
+      <c r="C624" t="s">
         <v>1192</v>
-      </c>
-      <c r="B624" t="s">
-        <v>6</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1193</v>
       </c>
       <c r="D624" t="s">
         <v>8</v>
@@ -15376,13 +15382,13 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B625" t="s">
+        <v>6</v>
+      </c>
+      <c r="C625" t="s">
         <v>1194</v>
-      </c>
-      <c r="B625" t="s">
-        <v>6</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1195</v>
       </c>
       <c r="D625" t="s">
         <v>8</v>
@@ -15393,13 +15399,13 @@
     </row>
     <row r="626" spans="1:5">
       <c r="A626" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B626" t="s">
+        <v>6</v>
+      </c>
+      <c r="C626" t="s">
         <v>1196</v>
-      </c>
-      <c r="B626" t="s">
-        <v>6</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1197</v>
       </c>
       <c r="D626" t="s">
         <v>8</v>
@@ -15410,13 +15416,13 @@
     </row>
     <row r="627" spans="1:5">
       <c r="A627" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B627" t="s">
+        <v>6</v>
+      </c>
+      <c r="C627" t="s">
         <v>1198</v>
-      </c>
-      <c r="B627" t="s">
-        <v>6</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1199</v>
       </c>
       <c r="D627" t="s">
         <v>8</v>
@@ -15427,13 +15433,13 @@
     </row>
     <row r="628" spans="1:5">
       <c r="A628" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B628" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" t="s">
         <v>1200</v>
-      </c>
-      <c r="B628" t="s">
-        <v>6</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1201</v>
       </c>
       <c r="D628" t="s">
         <v>8</v>
@@ -15444,13 +15450,13 @@
     </row>
     <row r="629" spans="1:5">
       <c r="A629" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B629" t="s">
+        <v>6</v>
+      </c>
+      <c r="C629" t="s">
         <v>1202</v>
-      </c>
-      <c r="B629" t="s">
-        <v>6</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1203</v>
       </c>
       <c r="D629" t="s">
         <v>8</v>
@@ -15461,13 +15467,13 @@
     </row>
     <row r="630" spans="1:5">
       <c r="A630" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B630" t="s">
+        <v>6</v>
+      </c>
+      <c r="C630" t="s">
         <v>1204</v>
-      </c>
-      <c r="B630" t="s">
-        <v>6</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1205</v>
       </c>
       <c r="D630" t="s">
         <v>8</v>
@@ -15478,13 +15484,13 @@
     </row>
     <row r="631" spans="1:5">
       <c r="A631" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B631" t="s">
+        <v>6</v>
+      </c>
+      <c r="C631" t="s">
         <v>1206</v>
-      </c>
-      <c r="B631" t="s">
-        <v>6</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1207</v>
       </c>
       <c r="D631" t="s">
         <v>8</v>
@@ -15495,13 +15501,13 @@
     </row>
     <row r="632" spans="1:5">
       <c r="A632" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B632" t="s">
+        <v>6</v>
+      </c>
+      <c r="C632" t="s">
         <v>1208</v>
-      </c>
-      <c r="B632" t="s">
-        <v>6</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1209</v>
       </c>
       <c r="D632" t="s">
         <v>8</v>
@@ -15512,13 +15518,13 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B633" t="s">
+        <v>6</v>
+      </c>
+      <c r="C633" t="s">
         <v>1210</v>
-      </c>
-      <c r="B633" t="s">
-        <v>6</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1211</v>
       </c>
       <c r="D633" t="s">
         <v>8</v>
@@ -15529,13 +15535,13 @@
     </row>
     <row r="634" spans="1:5">
       <c r="A634" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B634" t="s">
+        <v>6</v>
+      </c>
+      <c r="C634" t="s">
         <v>1212</v>
-      </c>
-      <c r="B634" t="s">
-        <v>6</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1213</v>
       </c>
       <c r="D634" t="s">
         <v>8</v>
@@ -15546,13 +15552,13 @@
     </row>
     <row r="635" spans="1:5">
       <c r="A635" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B635" t="s">
+        <v>6</v>
+      </c>
+      <c r="C635" t="s">
         <v>1214</v>
-      </c>
-      <c r="B635" t="s">
-        <v>6</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1215</v>
       </c>
       <c r="D635" t="s">
         <v>8</v>
@@ -15563,13 +15569,13 @@
     </row>
     <row r="636" spans="1:5">
       <c r="A636" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B636" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" t="s">
         <v>1216</v>
-      </c>
-      <c r="B636" t="s">
-        <v>6</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1217</v>
       </c>
       <c r="D636" t="s">
         <v>8</v>
@@ -15580,13 +15586,13 @@
     </row>
     <row r="637" spans="1:5">
       <c r="A637" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B637" t="s">
+        <v>6</v>
+      </c>
+      <c r="C637" t="s">
         <v>1218</v>
-      </c>
-      <c r="B637" t="s">
-        <v>6</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1219</v>
       </c>
       <c r="D637" t="s">
         <v>8</v>
@@ -15597,13 +15603,13 @@
     </row>
     <row r="638" spans="1:5">
       <c r="A638" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B638" t="s">
+        <v>6</v>
+      </c>
+      <c r="C638" t="s">
         <v>1220</v>
-      </c>
-      <c r="B638" t="s">
-        <v>6</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1221</v>
       </c>
       <c r="D638" t="s">
         <v>8</v>
@@ -15614,7 +15620,7 @@
     </row>
     <row r="639" spans="1:5">
       <c r="A639" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B639" t="s">
         <v>6</v>
@@ -15631,13 +15637,13 @@
     </row>
     <row r="640" spans="1:5">
       <c r="A640" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B640" t="s">
+        <v>6</v>
+      </c>
+      <c r="C640" t="s">
         <v>1223</v>
-      </c>
-      <c r="B640" t="s">
-        <v>6</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1224</v>
       </c>
       <c r="D640" t="s">
         <v>8</v>
@@ -15648,13 +15654,13 @@
     </row>
     <row r="641" spans="1:5">
       <c r="A641" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B641" t="s">
+        <v>6</v>
+      </c>
+      <c r="C641" t="s">
         <v>1225</v>
-      </c>
-      <c r="B641" t="s">
-        <v>6</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1226</v>
       </c>
       <c r="D641" t="s">
         <v>8</v>
@@ -15665,13 +15671,13 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B642" t="s">
+        <v>6</v>
+      </c>
+      <c r="C642" t="s">
         <v>1227</v>
-      </c>
-      <c r="B642" t="s">
-        <v>6</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1228</v>
       </c>
       <c r="D642" t="s">
         <v>8</v>
@@ -15682,13 +15688,13 @@
     </row>
     <row r="643" spans="1:5">
       <c r="A643" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B643" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s">
         <v>1229</v>
-      </c>
-      <c r="B643" t="s">
-        <v>6</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1230</v>
       </c>
       <c r="D643" t="s">
         <v>8</v>
@@ -15699,13 +15705,13 @@
     </row>
     <row r="644" spans="1:5">
       <c r="A644" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B644" t="s">
+        <v>6</v>
+      </c>
+      <c r="C644" t="s">
         <v>1231</v>
-      </c>
-      <c r="B644" t="s">
-        <v>6</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1232</v>
       </c>
       <c r="D644" t="s">
         <v>8</v>
@@ -15716,13 +15722,13 @@
     </row>
     <row r="645" spans="1:5">
       <c r="A645" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B645" t="s">
+        <v>6</v>
+      </c>
+      <c r="C645" t="s">
         <v>1233</v>
-      </c>
-      <c r="B645" t="s">
-        <v>6</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1234</v>
       </c>
       <c r="D645" t="s">
         <v>8</v>
@@ -15733,13 +15739,13 @@
     </row>
     <row r="646" spans="1:5">
       <c r="A646" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B646" t="s">
+        <v>6</v>
+      </c>
+      <c r="C646" t="s">
         <v>1235</v>
-      </c>
-      <c r="B646" t="s">
-        <v>6</v>
-      </c>
-      <c r="C646" t="s">
-        <v>1236</v>
       </c>
       <c r="D646" t="s">
         <v>8</v>
@@ -15750,13 +15756,13 @@
     </row>
     <row r="647" spans="1:5">
       <c r="A647" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B647" t="s">
+        <v>6</v>
+      </c>
+      <c r="C647" t="s">
         <v>1237</v>
-      </c>
-      <c r="B647" t="s">
-        <v>6</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1238</v>
       </c>
       <c r="D647" t="s">
         <v>8</v>
@@ -15767,13 +15773,13 @@
     </row>
     <row r="648" spans="1:5">
       <c r="A648" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B648" t="s">
+        <v>6</v>
+      </c>
+      <c r="C648" t="s">
         <v>1239</v>
-      </c>
-      <c r="B648" t="s">
-        <v>6</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1240</v>
       </c>
       <c r="D648" t="s">
         <v>8</v>
@@ -15784,13 +15790,13 @@
     </row>
     <row r="649" spans="1:5">
       <c r="A649" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B649" t="s">
+        <v>6</v>
+      </c>
+      <c r="C649" t="s">
         <v>1241</v>
-      </c>
-      <c r="B649" t="s">
-        <v>6</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1242</v>
       </c>
       <c r="D649" t="s">
         <v>8</v>
@@ -15801,13 +15807,13 @@
     </row>
     <row r="650" spans="1:5">
       <c r="A650" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B650" t="s">
+        <v>6</v>
+      </c>
+      <c r="C650" t="s">
         <v>1243</v>
-      </c>
-      <c r="B650" t="s">
-        <v>6</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1244</v>
       </c>
       <c r="D650" t="s">
         <v>8</v>
@@ -15818,7 +15824,7 @@
     </row>
     <row r="651" spans="1:5">
       <c r="A651" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B651" t="s">
         <v>6</v>
@@ -15835,13 +15841,13 @@
     </row>
     <row r="652" spans="1:5">
       <c r="A652" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B652" t="s">
+        <v>6</v>
+      </c>
+      <c r="C652" t="s">
         <v>1246</v>
-      </c>
-      <c r="B652" t="s">
-        <v>6</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1247</v>
       </c>
       <c r="D652" t="s">
         <v>8</v>
@@ -15852,13 +15858,13 @@
     </row>
     <row r="653" spans="1:5">
       <c r="A653" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B653" t="s">
+        <v>6</v>
+      </c>
+      <c r="C653" t="s">
         <v>1248</v>
-      </c>
-      <c r="B653" t="s">
-        <v>6</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1249</v>
       </c>
       <c r="D653" t="s">
         <v>8</v>
@@ -15869,13 +15875,13 @@
     </row>
     <row r="654" spans="1:5">
       <c r="A654" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B654" t="s">
+        <v>6</v>
+      </c>
+      <c r="C654" t="s">
         <v>1250</v>
-      </c>
-      <c r="B654" t="s">
-        <v>6</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1251</v>
       </c>
       <c r="D654" t="s">
         <v>8</v>
@@ -15886,13 +15892,13 @@
     </row>
     <row r="655" spans="1:5">
       <c r="A655" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B655" t="s">
+        <v>6</v>
+      </c>
+      <c r="C655" t="s">
         <v>1252</v>
-      </c>
-      <c r="B655" t="s">
-        <v>6</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1253</v>
       </c>
       <c r="D655" t="s">
         <v>8</v>
@@ -15903,13 +15909,13 @@
     </row>
     <row r="656" spans="1:5">
       <c r="A656" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B656" t="s">
+        <v>6</v>
+      </c>
+      <c r="C656" t="s">
         <v>1254</v>
-      </c>
-      <c r="B656" t="s">
-        <v>6</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1255</v>
       </c>
       <c r="D656" t="s">
         <v>8</v>
@@ -15920,13 +15926,13 @@
     </row>
     <row r="657" spans="1:5">
       <c r="A657" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B657" t="s">
+        <v>6</v>
+      </c>
+      <c r="C657" t="s">
         <v>1256</v>
-      </c>
-      <c r="B657" t="s">
-        <v>6</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1257</v>
       </c>
       <c r="D657" t="s">
         <v>8</v>
@@ -15937,13 +15943,13 @@
     </row>
     <row r="658" spans="1:5">
       <c r="A658" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B658" t="s">
+        <v>6</v>
+      </c>
+      <c r="C658" t="s">
         <v>1258</v>
-      </c>
-      <c r="B658" t="s">
-        <v>6</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1259</v>
       </c>
       <c r="D658" t="s">
         <v>8</v>
@@ -15954,13 +15960,13 @@
     </row>
     <row r="659" spans="1:5">
       <c r="A659" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B659" t="s">
+        <v>6</v>
+      </c>
+      <c r="C659" t="s">
         <v>1260</v>
-      </c>
-      <c r="B659" t="s">
-        <v>6</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1261</v>
       </c>
       <c r="D659" t="s">
         <v>8</v>
@@ -15971,13 +15977,13 @@
     </row>
     <row r="660" spans="1:5">
       <c r="A660" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B660" t="s">
+        <v>6</v>
+      </c>
+      <c r="C660" t="s">
         <v>1262</v>
-      </c>
-      <c r="B660" t="s">
-        <v>6</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1263</v>
       </c>
       <c r="D660" t="s">
         <v>8</v>
@@ -15988,13 +15994,13 @@
     </row>
     <row r="661" spans="1:5">
       <c r="A661" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B661" t="s">
+        <v>6</v>
+      </c>
+      <c r="C661" t="s">
         <v>1264</v>
-      </c>
-      <c r="B661" t="s">
-        <v>6</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1265</v>
       </c>
       <c r="D661" t="s">
         <v>8</v>
@@ -16005,13 +16011,13 @@
     </row>
     <row r="662" spans="1:5">
       <c r="A662" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B662" t="s">
+        <v>6</v>
+      </c>
+      <c r="C662" t="s">
         <v>1266</v>
-      </c>
-      <c r="B662" t="s">
-        <v>6</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1267</v>
       </c>
       <c r="D662" t="s">
         <v>50</v>
@@ -16022,13 +16028,13 @@
     </row>
     <row r="663" spans="1:5">
       <c r="A663" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B663" t="s">
+        <v>6</v>
+      </c>
+      <c r="C663" t="s">
         <v>1268</v>
-      </c>
-      <c r="B663" t="s">
-        <v>6</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1269</v>
       </c>
       <c r="D663" t="s">
         <v>50</v>
@@ -16039,7 +16045,7 @@
     </row>
     <row r="664" spans="1:5">
       <c r="A664" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B664" t="s">
         <v>6</v>
@@ -16056,13 +16062,13 @@
     </row>
     <row r="665" spans="1:5">
       <c r="A665" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B665" t="s">
+        <v>6</v>
+      </c>
+      <c r="C665" t="s">
         <v>1271</v>
-      </c>
-      <c r="B665" t="s">
-        <v>6</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1272</v>
       </c>
       <c r="D665" t="s">
         <v>50</v>
@@ -16073,13 +16079,13 @@
     </row>
     <row r="666" spans="1:5">
       <c r="A666" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B666" t="s">
+        <v>6</v>
+      </c>
+      <c r="C666" t="s">
         <v>1273</v>
-      </c>
-      <c r="B666" t="s">
-        <v>6</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1274</v>
       </c>
       <c r="D666" t="s">
         <v>50</v>
@@ -16090,13 +16096,13 @@
     </row>
     <row r="667" spans="1:5">
       <c r="A667" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B667" t="s">
+        <v>6</v>
+      </c>
+      <c r="C667" t="s">
         <v>1275</v>
-      </c>
-      <c r="B667" t="s">
-        <v>6</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1276</v>
       </c>
       <c r="D667" t="s">
         <v>50</v>
@@ -16107,13 +16113,13 @@
     </row>
     <row r="668" spans="1:5">
       <c r="A668" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B668" t="s">
+        <v>6</v>
+      </c>
+      <c r="C668" t="s">
         <v>1277</v>
-      </c>
-      <c r="B668" t="s">
-        <v>6</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1278</v>
       </c>
       <c r="D668" t="s">
         <v>50</v>
@@ -16124,13 +16130,13 @@
     </row>
     <row r="669" spans="1:5">
       <c r="A669" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B669" t="s">
+        <v>6</v>
+      </c>
+      <c r="C669" t="s">
         <v>1279</v>
-      </c>
-      <c r="B669" t="s">
-        <v>6</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1280</v>
       </c>
       <c r="D669" t="s">
         <v>8</v>
@@ -16141,13 +16147,13 @@
     </row>
     <row r="670" spans="1:5">
       <c r="A670" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B670" t="s">
+        <v>6</v>
+      </c>
+      <c r="C670" t="s">
         <v>1281</v>
-      </c>
-      <c r="B670" t="s">
-        <v>6</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1282</v>
       </c>
       <c r="D670" t="s">
         <v>8</v>
@@ -16158,13 +16164,13 @@
     </row>
     <row r="671" spans="1:5">
       <c r="A671" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B671" t="s">
+        <v>6</v>
+      </c>
+      <c r="C671" t="s">
         <v>1283</v>
-      </c>
-      <c r="B671" t="s">
-        <v>6</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1284</v>
       </c>
       <c r="D671" t="s">
         <v>8</v>
@@ -16175,13 +16181,13 @@
     </row>
     <row r="672" spans="1:5">
       <c r="A672" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B672" t="s">
+        <v>6</v>
+      </c>
+      <c r="C672" t="s">
         <v>1285</v>
-      </c>
-      <c r="B672" t="s">
-        <v>6</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1286</v>
       </c>
       <c r="D672" t="s">
         <v>8</v>
@@ -16192,13 +16198,13 @@
     </row>
     <row r="673" spans="1:5">
       <c r="A673" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B673" t="s">
+        <v>6</v>
+      </c>
+      <c r="C673" t="s">
         <v>1287</v>
-      </c>
-      <c r="B673" t="s">
-        <v>6</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1288</v>
       </c>
       <c r="D673" t="s">
         <v>8</v>
@@ -16209,13 +16215,13 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B674" t="s">
+        <v>6</v>
+      </c>
+      <c r="C674" t="s">
         <v>1289</v>
-      </c>
-      <c r="B674" t="s">
-        <v>6</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1290</v>
       </c>
       <c r="D674" t="s">
         <v>8</v>
@@ -16226,13 +16232,13 @@
     </row>
     <row r="675" spans="1:5">
       <c r="A675" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B675" t="s">
+        <v>6</v>
+      </c>
+      <c r="C675" t="s">
         <v>1291</v>
-      </c>
-      <c r="B675" t="s">
-        <v>6</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1292</v>
       </c>
       <c r="D675" t="s">
         <v>8</v>
@@ -16243,13 +16249,13 @@
     </row>
     <row r="676" spans="1:5">
       <c r="A676" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B676" t="s">
+        <v>6</v>
+      </c>
+      <c r="C676" t="s">
         <v>1293</v>
-      </c>
-      <c r="B676" t="s">
-        <v>6</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1294</v>
       </c>
       <c r="D676" t="s">
         <v>8</v>
@@ -16260,13 +16266,13 @@
     </row>
     <row r="677" spans="1:5">
       <c r="A677" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B677" t="s">
+        <v>6</v>
+      </c>
+      <c r="C677" t="s">
         <v>1295</v>
-      </c>
-      <c r="B677" t="s">
-        <v>6</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1296</v>
       </c>
       <c r="D677" t="s">
         <v>8</v>
@@ -16277,13 +16283,13 @@
     </row>
     <row r="678" spans="1:5">
       <c r="A678" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B678" t="s">
+        <v>6</v>
+      </c>
+      <c r="C678" t="s">
         <v>1297</v>
-      </c>
-      <c r="B678" t="s">
-        <v>6</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1298</v>
       </c>
       <c r="D678" t="s">
         <v>8</v>
@@ -16294,13 +16300,13 @@
     </row>
     <row r="679" spans="1:5">
       <c r="A679" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B679" t="s">
+        <v>6</v>
+      </c>
+      <c r="C679" t="s">
         <v>1299</v>
-      </c>
-      <c r="B679" t="s">
-        <v>6</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1300</v>
       </c>
       <c r="D679" t="s">
         <v>8</v>
@@ -16311,13 +16317,13 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B680" t="s">
+        <v>6</v>
+      </c>
+      <c r="C680" t="s">
         <v>1301</v>
-      </c>
-      <c r="B680" t="s">
-        <v>6</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1302</v>
       </c>
       <c r="D680" t="s">
         <v>8</v>
@@ -16328,13 +16334,13 @@
     </row>
     <row r="681" spans="1:5">
       <c r="A681" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B681" t="s">
+        <v>6</v>
+      </c>
+      <c r="C681" t="s">
         <v>1303</v>
-      </c>
-      <c r="B681" t="s">
-        <v>6</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1304</v>
       </c>
       <c r="D681" t="s">
         <v>8</v>
@@ -16345,13 +16351,13 @@
     </row>
     <row r="682" spans="1:5">
       <c r="A682" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B682" t="s">
+        <v>6</v>
+      </c>
+      <c r="C682" t="s">
         <v>1305</v>
-      </c>
-      <c r="B682" t="s">
-        <v>6</v>
-      </c>
-      <c r="C682" t="s">
-        <v>1306</v>
       </c>
       <c r="D682" t="s">
         <v>8</v>
@@ -16362,13 +16368,13 @@
     </row>
     <row r="683" spans="1:5">
       <c r="A683" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B683" t="s">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s">
         <v>1307</v>
-      </c>
-      <c r="B683" t="s">
-        <v>6</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1308</v>
       </c>
       <c r="D683" t="s">
         <v>8</v>
@@ -16379,7 +16385,7 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B684" t="s">
         <v>6</v>
@@ -16396,7 +16402,7 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B685" t="s">
         <v>6</v>
@@ -16413,13 +16419,13 @@
     </row>
     <row r="686" spans="1:5">
       <c r="A686" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B686" t="s">
+        <v>6</v>
+      </c>
+      <c r="C686" t="s">
         <v>1311</v>
-      </c>
-      <c r="B686" t="s">
-        <v>6</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1312</v>
       </c>
       <c r="D686" t="s">
         <v>8</v>
@@ -16430,13 +16436,13 @@
     </row>
     <row r="687" spans="1:5">
       <c r="A687" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B687" t="s">
+        <v>6</v>
+      </c>
+      <c r="C687" t="s">
         <v>1313</v>
-      </c>
-      <c r="B687" t="s">
-        <v>6</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1314</v>
       </c>
       <c r="D687" t="s">
         <v>8</v>
@@ -16447,13 +16453,13 @@
     </row>
     <row r="688" spans="1:5">
       <c r="A688" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B688" t="s">
+        <v>6</v>
+      </c>
+      <c r="C688" t="s">
         <v>1315</v>
-      </c>
-      <c r="B688" t="s">
-        <v>6</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1316</v>
       </c>
       <c r="D688" t="s">
         <v>8</v>
@@ -16464,13 +16470,13 @@
     </row>
     <row r="689" spans="1:5">
       <c r="A689" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B689" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689" t="s">
         <v>1317</v>
-      </c>
-      <c r="B689" t="s">
-        <v>6</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1318</v>
       </c>
       <c r="D689" t="s">
         <v>8</v>
@@ -16481,7 +16487,7 @@
     </row>
     <row r="690" spans="1:5">
       <c r="A690" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B690" t="s">
         <v>6</v>
@@ -16498,13 +16504,13 @@
     </row>
     <row r="691" spans="1:5">
       <c r="A691" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B691" t="s">
+        <v>6</v>
+      </c>
+      <c r="C691" t="s">
         <v>1320</v>
-      </c>
-      <c r="B691" t="s">
-        <v>6</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1321</v>
       </c>
       <c r="D691" t="s">
         <v>8</v>
@@ -16515,13 +16521,13 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B692" t="s">
+        <v>6</v>
+      </c>
+      <c r="C692" t="s">
         <v>1322</v>
-      </c>
-      <c r="B692" t="s">
-        <v>6</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1323</v>
       </c>
       <c r="D692" t="s">
         <v>8</v>
@@ -16532,13 +16538,13 @@
     </row>
     <row r="693" spans="1:5">
       <c r="A693" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B693" t="s">
+        <v>6</v>
+      </c>
+      <c r="C693" t="s">
         <v>1324</v>
-      </c>
-      <c r="B693" t="s">
-        <v>6</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1325</v>
       </c>
       <c r="D693" t="s">
         <v>8</v>
@@ -16549,13 +16555,13 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B694" t="s">
+        <v>6</v>
+      </c>
+      <c r="C694" t="s">
         <v>1326</v>
-      </c>
-      <c r="B694" t="s">
-        <v>6</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1327</v>
       </c>
       <c r="D694" t="s">
         <v>8</v>
@@ -16566,13 +16572,13 @@
     </row>
     <row r="695" spans="1:5">
       <c r="A695" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695" t="s">
         <v>1328</v>
-      </c>
-      <c r="B695" t="s">
-        <v>6</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1329</v>
       </c>
       <c r="D695" t="s">
         <v>8</v>
@@ -16583,13 +16589,13 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B696" t="s">
+        <v>6</v>
+      </c>
+      <c r="C696" t="s">
         <v>1330</v>
-      </c>
-      <c r="B696" t="s">
-        <v>6</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1331</v>
       </c>
       <c r="D696" t="s">
         <v>8</v>
@@ -16600,13 +16606,13 @@
     </row>
     <row r="697" spans="1:5">
       <c r="A697" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B697" t="s">
+        <v>6</v>
+      </c>
+      <c r="C697" t="s">
         <v>1332</v>
-      </c>
-      <c r="B697" t="s">
-        <v>6</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1333</v>
       </c>
       <c r="D697" t="s">
         <v>8</v>
@@ -16617,13 +16623,13 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B698" t="s">
+        <v>6</v>
+      </c>
+      <c r="C698" t="s">
         <v>1334</v>
-      </c>
-      <c r="B698" t="s">
-        <v>6</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1335</v>
       </c>
       <c r="D698" t="s">
         <v>8</v>
@@ -16634,13 +16640,13 @@
     </row>
     <row r="699" spans="1:5">
       <c r="A699" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C699" t="s">
         <v>1336</v>
-      </c>
-      <c r="B699" t="s">
-        <v>6</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1337</v>
       </c>
       <c r="D699" t="s">
         <v>8</v>
@@ -16651,13 +16657,13 @@
     </row>
     <row r="700" spans="1:5">
       <c r="A700" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B700" t="s">
+        <v>6</v>
+      </c>
+      <c r="C700" t="s">
         <v>1338</v>
-      </c>
-      <c r="B700" t="s">
-        <v>6</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1339</v>
       </c>
       <c r="D700" t="s">
         <v>50</v>
@@ -16668,13 +16674,13 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B701" t="s">
+        <v>6</v>
+      </c>
+      <c r="C701" t="s">
         <v>1340</v>
-      </c>
-      <c r="B701" t="s">
-        <v>6</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1341</v>
       </c>
       <c r="D701" t="s">
         <v>50</v>
@@ -16685,13 +16691,13 @@
     </row>
     <row r="702" spans="1:5">
       <c r="A702" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B702" t="s">
+        <v>6</v>
+      </c>
+      <c r="C702" t="s">
         <v>1342</v>
-      </c>
-      <c r="B702" t="s">
-        <v>6</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1343</v>
       </c>
       <c r="D702" t="s">
         <v>50</v>
@@ -16702,13 +16708,13 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B703" t="s">
+        <v>6</v>
+      </c>
+      <c r="C703" t="s">
         <v>1344</v>
-      </c>
-      <c r="B703" t="s">
-        <v>6</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1345</v>
       </c>
       <c r="D703" t="s">
         <v>50</v>
@@ -16719,13 +16725,13 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B704" t="s">
+        <v>6</v>
+      </c>
+      <c r="C704" t="s">
         <v>1346</v>
-      </c>
-      <c r="B704" t="s">
-        <v>6</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1347</v>
       </c>
       <c r="D704" t="s">
         <v>50</v>
@@ -16736,13 +16742,13 @@
     </row>
     <row r="705" spans="1:5">
       <c r="A705" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B705" t="s">
+        <v>6</v>
+      </c>
+      <c r="C705" t="s">
         <v>1348</v>
-      </c>
-      <c r="B705" t="s">
-        <v>6</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1349</v>
       </c>
       <c r="D705" t="s">
         <v>50</v>
@@ -16753,13 +16759,13 @@
     </row>
     <row r="706" spans="1:5">
       <c r="A706" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B706" t="s">
+        <v>6</v>
+      </c>
+      <c r="C706" t="s">
         <v>1350</v>
-      </c>
-      <c r="B706" t="s">
-        <v>6</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1351</v>
       </c>
       <c r="D706" t="s">
         <v>50</v>
@@ -16770,13 +16776,13 @@
     </row>
     <row r="707" spans="1:5">
       <c r="A707" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B707" t="s">
+        <v>6</v>
+      </c>
+      <c r="C707" t="s">
         <v>1352</v>
-      </c>
-      <c r="B707" t="s">
-        <v>6</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1353</v>
       </c>
       <c r="D707" t="s">
         <v>50</v>
@@ -16787,13 +16793,13 @@
     </row>
     <row r="708" spans="1:5">
       <c r="A708" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B708" t="s">
+        <v>6</v>
+      </c>
+      <c r="C708" t="s">
         <v>1354</v>
-      </c>
-      <c r="B708" t="s">
-        <v>6</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1355</v>
       </c>
       <c r="D708" t="s">
         <v>50</v>
@@ -16804,13 +16810,13 @@
     </row>
     <row r="709" spans="1:5">
       <c r="A709" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B709" t="s">
+        <v>6</v>
+      </c>
+      <c r="C709" t="s">
         <v>1356</v>
-      </c>
-      <c r="B709" t="s">
-        <v>6</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1357</v>
       </c>
       <c r="D709" t="s">
         <v>50</v>
@@ -16821,13 +16827,13 @@
     </row>
     <row r="710" spans="1:5">
       <c r="A710" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B710" t="s">
+        <v>6</v>
+      </c>
+      <c r="C710" t="s">
         <v>1358</v>
-      </c>
-      <c r="B710" t="s">
-        <v>6</v>
-      </c>
-      <c r="C710" t="s">
-        <v>1359</v>
       </c>
       <c r="D710" t="s">
         <v>50</v>
@@ -16838,13 +16844,13 @@
     </row>
     <row r="711" spans="1:5">
       <c r="A711" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B711" t="s">
+        <v>6</v>
+      </c>
+      <c r="C711" t="s">
         <v>1360</v>
-      </c>
-      <c r="B711" t="s">
-        <v>6</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1361</v>
       </c>
       <c r="D711" t="s">
         <v>50</v>
@@ -16855,13 +16861,13 @@
     </row>
     <row r="712" spans="1:5">
       <c r="A712" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B712" t="s">
+        <v>6</v>
+      </c>
+      <c r="C712" t="s">
         <v>1362</v>
-      </c>
-      <c r="B712" t="s">
-        <v>6</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1363</v>
       </c>
       <c r="D712" t="s">
         <v>50</v>
@@ -16872,13 +16878,13 @@
     </row>
     <row r="713" spans="1:5">
       <c r="A713" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B713" t="s">
+        <v>6</v>
+      </c>
+      <c r="C713" t="s">
         <v>1364</v>
-      </c>
-      <c r="B713" t="s">
-        <v>6</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1365</v>
       </c>
       <c r="D713" t="s">
         <v>8</v>
@@ -16889,13 +16895,13 @@
     </row>
     <row r="714" spans="1:5">
       <c r="A714" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B714" t="s">
+        <v>6</v>
+      </c>
+      <c r="C714" t="s">
         <v>1366</v>
-      </c>
-      <c r="B714" t="s">
-        <v>6</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1367</v>
       </c>
       <c r="D714" t="s">
         <v>8</v>
@@ -16906,13 +16912,13 @@
     </row>
     <row r="715" spans="1:5">
       <c r="A715" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B715" t="s">
+        <v>6</v>
+      </c>
+      <c r="C715" t="s">
         <v>1368</v>
-      </c>
-      <c r="B715" t="s">
-        <v>6</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1369</v>
       </c>
       <c r="D715" t="s">
         <v>8</v>
@@ -16923,13 +16929,13 @@
     </row>
     <row r="716" spans="1:5">
       <c r="A716" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B716" t="s">
+        <v>6</v>
+      </c>
+      <c r="C716" t="s">
         <v>1370</v>
-      </c>
-      <c r="B716" t="s">
-        <v>6</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1371</v>
       </c>
       <c r="D716" t="s">
         <v>50</v>
@@ -16940,13 +16946,13 @@
     </row>
     <row r="717" spans="1:5">
       <c r="A717" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B717" t="s">
+        <v>6</v>
+      </c>
+      <c r="C717" t="s">
         <v>1372</v>
-      </c>
-      <c r="B717" t="s">
-        <v>6</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1373</v>
       </c>
       <c r="D717" t="s">
         <v>50</v>
@@ -16957,13 +16963,13 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B718" t="s">
+        <v>6</v>
+      </c>
+      <c r="C718" t="s">
         <v>1374</v>
-      </c>
-      <c r="B718" t="s">
-        <v>6</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1375</v>
       </c>
       <c r="D718" t="s">
         <v>8</v>
@@ -16974,13 +16980,13 @@
     </row>
     <row r="719" spans="1:5">
       <c r="A719" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B719" t="s">
+        <v>6</v>
+      </c>
+      <c r="C719" t="s">
         <v>1376</v>
-      </c>
-      <c r="B719" t="s">
-        <v>6</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1377</v>
       </c>
       <c r="D719" t="s">
         <v>50</v>
@@ -16991,13 +16997,13 @@
     </row>
     <row r="720" spans="1:5">
       <c r="A720" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B720" t="s">
+        <v>6</v>
+      </c>
+      <c r="C720" t="s">
         <v>1378</v>
-      </c>
-      <c r="B720" t="s">
-        <v>6</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1379</v>
       </c>
       <c r="D720" t="s">
         <v>50</v>
@@ -17008,13 +17014,13 @@
     </row>
     <row r="721" spans="1:5">
       <c r="A721" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B721" t="s">
+        <v>6</v>
+      </c>
+      <c r="C721" t="s">
         <v>1380</v>
-      </c>
-      <c r="B721" t="s">
-        <v>6</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1381</v>
       </c>
       <c r="D721" t="s">
         <v>50</v>
@@ -17025,13 +17031,13 @@
     </row>
     <row r="722" spans="1:5">
       <c r="A722" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B722" t="s">
+        <v>6</v>
+      </c>
+      <c r="C722" t="s">
         <v>1382</v>
-      </c>
-      <c r="B722" t="s">
-        <v>6</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1383</v>
       </c>
       <c r="D722" t="s">
         <v>8</v>
@@ -17042,13 +17048,13 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B723" t="s">
+        <v>6</v>
+      </c>
+      <c r="C723" t="s">
         <v>1384</v>
-      </c>
-      <c r="B723" t="s">
-        <v>6</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1385</v>
       </c>
       <c r="D723" t="s">
         <v>50</v>
@@ -17059,13 +17065,13 @@
     </row>
     <row r="724" spans="1:5">
       <c r="A724" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B724" t="s">
+        <v>6</v>
+      </c>
+      <c r="C724" t="s">
         <v>1386</v>
-      </c>
-      <c r="B724" t="s">
-        <v>6</v>
-      </c>
-      <c r="C724" t="s">
-        <v>1387</v>
       </c>
       <c r="D724" t="s">
         <v>8</v>
@@ -17076,13 +17082,13 @@
     </row>
     <row r="725" spans="1:5">
       <c r="A725" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B725" t="s">
+        <v>6</v>
+      </c>
+      <c r="C725" t="s">
         <v>1388</v>
-      </c>
-      <c r="B725" t="s">
-        <v>6</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1389</v>
       </c>
       <c r="D725" t="s">
         <v>8</v>
@@ -17093,13 +17099,13 @@
     </row>
     <row r="726" spans="1:5">
       <c r="A726" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B726" t="s">
+        <v>6</v>
+      </c>
+      <c r="C726" t="s">
         <v>1390</v>
-      </c>
-      <c r="B726" t="s">
-        <v>6</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1391</v>
       </c>
       <c r="D726" t="s">
         <v>8</v>
@@ -17110,13 +17116,13 @@
     </row>
     <row r="727" spans="1:5">
       <c r="A727" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B727" t="s">
+        <v>6</v>
+      </c>
+      <c r="C727" t="s">
         <v>1392</v>
-      </c>
-      <c r="B727" t="s">
-        <v>6</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1393</v>
       </c>
       <c r="D727" t="s">
         <v>8</v>
@@ -17127,13 +17133,13 @@
     </row>
     <row r="728" spans="1:5">
       <c r="A728" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B728" t="s">
+        <v>6</v>
+      </c>
+      <c r="C728" t="s">
         <v>1394</v>
-      </c>
-      <c r="B728" t="s">
-        <v>6</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1395</v>
       </c>
       <c r="D728" t="s">
         <v>8</v>
@@ -17144,13 +17150,13 @@
     </row>
     <row r="729" spans="1:5">
       <c r="A729" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B729" t="s">
+        <v>6</v>
+      </c>
+      <c r="C729" t="s">
         <v>1396</v>
-      </c>
-      <c r="B729" t="s">
-        <v>6</v>
-      </c>
-      <c r="C729" t="s">
-        <v>1397</v>
       </c>
       <c r="D729" t="s">
         <v>50</v>
@@ -17161,13 +17167,13 @@
     </row>
     <row r="730" spans="1:5">
       <c r="A730" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B730" t="s">
+        <v>6</v>
+      </c>
+      <c r="C730" t="s">
         <v>1398</v>
-      </c>
-      <c r="B730" t="s">
-        <v>6</v>
-      </c>
-      <c r="C730" t="s">
-        <v>1399</v>
       </c>
       <c r="D730" t="s">
         <v>50</v>
@@ -17178,13 +17184,13 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B731" t="s">
+        <v>6</v>
+      </c>
+      <c r="C731" t="s">
         <v>1400</v>
-      </c>
-      <c r="B731" t="s">
-        <v>6</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1401</v>
       </c>
       <c r="D731" t="s">
         <v>50</v>
@@ -17195,13 +17201,13 @@
     </row>
     <row r="732" spans="1:5">
       <c r="A732" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B732" t="s">
+        <v>6</v>
+      </c>
+      <c r="C732" t="s">
         <v>1402</v>
-      </c>
-      <c r="B732" t="s">
-        <v>6</v>
-      </c>
-      <c r="C732" t="s">
-        <v>1403</v>
       </c>
       <c r="D732" t="s">
         <v>50</v>
@@ -17212,13 +17218,13 @@
     </row>
     <row r="733" spans="1:5">
       <c r="A733" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B733" t="s">
+        <v>6</v>
+      </c>
+      <c r="C733" t="s">
         <v>1404</v>
-      </c>
-      <c r="B733" t="s">
-        <v>6</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1405</v>
       </c>
       <c r="D733" t="s">
         <v>50</v>
@@ -17229,13 +17235,13 @@
     </row>
     <row r="734" spans="1:5">
       <c r="A734" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B734" t="s">
+        <v>6</v>
+      </c>
+      <c r="C734" t="s">
         <v>1406</v>
-      </c>
-      <c r="B734" t="s">
-        <v>6</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1407</v>
       </c>
       <c r="D734" t="s">
         <v>50</v>
@@ -17246,13 +17252,13 @@
     </row>
     <row r="735" spans="1:5">
       <c r="A735" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B735" t="s">
+        <v>6</v>
+      </c>
+      <c r="C735" t="s">
         <v>1408</v>
-      </c>
-      <c r="B735" t="s">
-        <v>6</v>
-      </c>
-      <c r="C735" t="s">
-        <v>1409</v>
       </c>
       <c r="D735" t="s">
         <v>50</v>
@@ -17263,13 +17269,13 @@
     </row>
     <row r="736" spans="1:5">
       <c r="A736" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B736" t="s">
+        <v>6</v>
+      </c>
+      <c r="C736" t="s">
         <v>1410</v>
-      </c>
-      <c r="B736" t="s">
-        <v>6</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1411</v>
       </c>
       <c r="D736" t="s">
         <v>50</v>
@@ -17280,13 +17286,13 @@
     </row>
     <row r="737" spans="1:5">
       <c r="A737" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B737" t="s">
+        <v>6</v>
+      </c>
+      <c r="C737" t="s">
         <v>1412</v>
-      </c>
-      <c r="B737" t="s">
-        <v>6</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1413</v>
       </c>
       <c r="D737" t="s">
         <v>50</v>
@@ -17297,7 +17303,7 @@
     </row>
     <row r="738" spans="1:5">
       <c r="A738" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B738" t="s">
         <v>6</v>
@@ -17314,13 +17320,13 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B739" t="s">
+        <v>6</v>
+      </c>
+      <c r="C739" t="s">
         <v>1415</v>
-      </c>
-      <c r="B739" t="s">
-        <v>6</v>
-      </c>
-      <c r="C739" t="s">
-        <v>1416</v>
       </c>
       <c r="D739" t="s">
         <v>8</v>
@@ -17331,7 +17337,7 @@
     </row>
     <row r="740" spans="1:5">
       <c r="A740" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B740" t="s">
         <v>6</v>
@@ -17348,13 +17354,13 @@
     </row>
     <row r="741" spans="1:5">
       <c r="A741" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B741" t="s">
+        <v>6</v>
+      </c>
+      <c r="C741" t="s">
         <v>1418</v>
-      </c>
-      <c r="B741" t="s">
-        <v>6</v>
-      </c>
-      <c r="C741" t="s">
-        <v>1419</v>
       </c>
       <c r="D741" t="s">
         <v>8</v>
@@ -17365,13 +17371,13 @@
     </row>
     <row r="742" spans="1:5">
       <c r="A742" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B742" t="s">
+        <v>6</v>
+      </c>
+      <c r="C742" t="s">
         <v>1420</v>
-      </c>
-      <c r="B742" t="s">
-        <v>6</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1421</v>
       </c>
       <c r="D742" t="s">
         <v>8</v>
@@ -17382,13 +17388,13 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B743" t="s">
         <v>6</v>
       </c>
       <c r="C743" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D743" t="s">
         <v>8</v>
@@ -17399,13 +17405,13 @@
     </row>
     <row r="744" spans="1:5">
       <c r="A744" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B744" t="s">
         <v>6</v>
       </c>
       <c r="C744" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D744" t="s">
         <v>8</v>
@@ -17416,7 +17422,7 @@
     </row>
     <row r="745" spans="1:5">
       <c r="A745" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B745" t="s">
         <v>6</v>
@@ -17433,13 +17439,13 @@
     </row>
     <row r="746" spans="1:5">
       <c r="A746" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B746" t="s">
+        <v>6</v>
+      </c>
+      <c r="C746" t="s">
         <v>1425</v>
-      </c>
-      <c r="B746" t="s">
-        <v>6</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1426</v>
       </c>
       <c r="D746" t="s">
         <v>8</v>
@@ -17450,13 +17456,13 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B747" t="s">
+        <v>6</v>
+      </c>
+      <c r="C747" t="s">
         <v>1427</v>
-      </c>
-      <c r="B747" t="s">
-        <v>6</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1428</v>
       </c>
       <c r="D747" t="s">
         <v>8</v>
@@ -17467,13 +17473,13 @@
     </row>
     <row r="748" spans="1:5">
       <c r="A748" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B748" t="s">
+        <v>6</v>
+      </c>
+      <c r="C748" t="s">
         <v>1429</v>
-      </c>
-      <c r="B748" t="s">
-        <v>6</v>
-      </c>
-      <c r="C748" t="s">
-        <v>1430</v>
       </c>
       <c r="D748" t="s">
         <v>8</v>
@@ -17484,13 +17490,13 @@
     </row>
     <row r="749" spans="1:5">
       <c r="A749" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B749" t="s">
+        <v>6</v>
+      </c>
+      <c r="C749" t="s">
         <v>1431</v>
-      </c>
-      <c r="B749" t="s">
-        <v>6</v>
-      </c>
-      <c r="C749" t="s">
-        <v>1432</v>
       </c>
       <c r="D749" t="s">
         <v>8</v>
@@ -17501,13 +17507,13 @@
     </row>
     <row r="750" spans="1:5">
       <c r="A750" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B750" t="s">
+        <v>6</v>
+      </c>
+      <c r="C750" t="s">
         <v>1433</v>
-      </c>
-      <c r="B750" t="s">
-        <v>6</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1434</v>
       </c>
       <c r="D750" t="s">
         <v>8</v>
@@ -17518,13 +17524,13 @@
     </row>
     <row r="751" spans="1:5">
       <c r="A751" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B751" t="s">
+        <v>6</v>
+      </c>
+      <c r="C751" t="s">
         <v>1435</v>
-      </c>
-      <c r="B751" t="s">
-        <v>6</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1436</v>
       </c>
       <c r="D751" t="s">
         <v>8</v>
@@ -17535,13 +17541,13 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B752" t="s">
+        <v>6</v>
+      </c>
+      <c r="C752" t="s">
         <v>1437</v>
-      </c>
-      <c r="B752" t="s">
-        <v>6</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1438</v>
       </c>
       <c r="D752" t="s">
         <v>8</v>
@@ -17552,13 +17558,13 @@
     </row>
     <row r="753" spans="1:5">
       <c r="A753" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B753" t="s">
+        <v>6</v>
+      </c>
+      <c r="C753" t="s">
         <v>1439</v>
-      </c>
-      <c r="B753" t="s">
-        <v>6</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1440</v>
       </c>
       <c r="D753" t="s">
         <v>50</v>
@@ -17569,13 +17575,13 @@
     </row>
     <row r="754" spans="1:5">
       <c r="A754" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B754" t="s">
+        <v>6</v>
+      </c>
+      <c r="C754" t="s">
         <v>1441</v>
-      </c>
-      <c r="B754" t="s">
-        <v>6</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1442</v>
       </c>
       <c r="D754" t="s">
         <v>50</v>
@@ -17586,13 +17592,13 @@
     </row>
     <row r="755" spans="1:5">
       <c r="A755" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B755" t="s">
+        <v>6</v>
+      </c>
+      <c r="C755" t="s">
         <v>1443</v>
-      </c>
-      <c r="B755" t="s">
-        <v>6</v>
-      </c>
-      <c r="C755" t="s">
-        <v>1444</v>
       </c>
       <c r="D755" t="s">
         <v>50</v>
@@ -17603,13 +17609,13 @@
     </row>
     <row r="756" spans="1:5">
       <c r="A756" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B756" t="s">
+        <v>6</v>
+      </c>
+      <c r="C756" t="s">
         <v>1445</v>
-      </c>
-      <c r="B756" t="s">
-        <v>6</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1446</v>
       </c>
       <c r="D756" t="s">
         <v>50</v>
@@ -17620,13 +17626,13 @@
     </row>
     <row r="757" spans="1:5">
       <c r="A757" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B757" t="s">
+        <v>6</v>
+      </c>
+      <c r="C757" t="s">
         <v>1447</v>
-      </c>
-      <c r="B757" t="s">
-        <v>6</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1448</v>
       </c>
       <c r="D757" t="s">
         <v>50</v>
@@ -17637,13 +17643,13 @@
     </row>
     <row r="758" spans="1:5">
       <c r="A758" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B758" t="s">
+        <v>6</v>
+      </c>
+      <c r="C758" t="s">
         <v>1449</v>
-      </c>
-      <c r="B758" t="s">
-        <v>6</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1450</v>
       </c>
       <c r="D758" t="s">
         <v>50</v>
@@ -17654,13 +17660,13 @@
     </row>
     <row r="759" spans="1:5">
       <c r="A759" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B759" t="s">
+        <v>6</v>
+      </c>
+      <c r="C759" t="s">
         <v>1451</v>
-      </c>
-      <c r="B759" t="s">
-        <v>6</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1452</v>
       </c>
       <c r="D759" t="s">
         <v>50</v>
@@ -17671,13 +17677,13 @@
     </row>
     <row r="760" spans="1:5">
       <c r="A760" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B760" t="s">
+        <v>6</v>
+      </c>
+      <c r="C760" t="s">
         <v>1453</v>
-      </c>
-      <c r="B760" t="s">
-        <v>6</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1454</v>
       </c>
       <c r="D760" t="s">
         <v>50</v>
@@ -17688,13 +17694,13 @@
     </row>
     <row r="761" spans="1:5">
       <c r="A761" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B761" t="s">
+        <v>6</v>
+      </c>
+      <c r="C761" t="s">
         <v>1455</v>
-      </c>
-      <c r="B761" t="s">
-        <v>6</v>
-      </c>
-      <c r="C761" t="s">
-        <v>1456</v>
       </c>
       <c r="D761" t="s">
         <v>50</v>
@@ -17705,13 +17711,13 @@
     </row>
     <row r="762" spans="1:5">
       <c r="A762" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B762" t="s">
+        <v>6</v>
+      </c>
+      <c r="C762" t="s">
         <v>1457</v>
-      </c>
-      <c r="B762" t="s">
-        <v>6</v>
-      </c>
-      <c r="C762" t="s">
-        <v>1458</v>
       </c>
       <c r="D762" t="s">
         <v>8</v>
@@ -17722,13 +17728,13 @@
     </row>
     <row r="763" spans="1:5">
       <c r="A763" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B763" t="s">
+        <v>6</v>
+      </c>
+      <c r="C763" t="s">
         <v>1459</v>
-      </c>
-      <c r="B763" t="s">
-        <v>6</v>
-      </c>
-      <c r="C763" t="s">
-        <v>1460</v>
       </c>
       <c r="D763" t="s">
         <v>8</v>
@@ -17739,13 +17745,13 @@
     </row>
     <row r="764" spans="1:5">
       <c r="A764" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B764" t="s">
+        <v>6</v>
+      </c>
+      <c r="C764" t="s">
         <v>1461</v>
-      </c>
-      <c r="B764" t="s">
-        <v>6</v>
-      </c>
-      <c r="C764" t="s">
-        <v>1462</v>
       </c>
       <c r="D764" t="s">
         <v>8</v>
@@ -17756,13 +17762,13 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B765" t="s">
+        <v>6</v>
+      </c>
+      <c r="C765" t="s">
         <v>1463</v>
-      </c>
-      <c r="B765" t="s">
-        <v>6</v>
-      </c>
-      <c r="C765" t="s">
-        <v>1464</v>
       </c>
       <c r="D765" t="s">
         <v>8</v>
@@ -17773,13 +17779,13 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B766" t="s">
+        <v>6</v>
+      </c>
+      <c r="C766" t="s">
         <v>1465</v>
-      </c>
-      <c r="B766" t="s">
-        <v>6</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1466</v>
       </c>
       <c r="D766" t="s">
         <v>8</v>
@@ -17790,7 +17796,7 @@
     </row>
     <row r="767" spans="1:5">
       <c r="A767" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B767" t="s">
         <v>6</v>
@@ -17807,13 +17813,13 @@
     </row>
     <row r="768" spans="1:5">
       <c r="A768" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B768" t="s">
+        <v>6</v>
+      </c>
+      <c r="C768" t="s">
         <v>1468</v>
-      </c>
-      <c r="B768" t="s">
-        <v>6</v>
-      </c>
-      <c r="C768" t="s">
-        <v>1469</v>
       </c>
       <c r="D768" t="s">
         <v>8</v>
